--- a/SpMVC_005_RentBook/document/도서대여점_회원관리_테이블명세(2023-07-21).xlsx
+++ b/SpMVC_005_RentBook/document/도서대여점_회원관리_테이블명세(2023-07-21).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\BizDoc\인재개발원 문서\50.운영 학과 문서\2023-03-22 디지털컨버전스 SpringMVC,React, 안드로이드 기반 개발자 양성과정\80.평가\90.서버프로그래밍구현\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\springMVC\SpMVC_005_RentBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC6674D-713B-4D2B-8CCF-21A90BC7BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1841F287-812A-4160-96CD-40B8D86B729F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -1008,72 +1008,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835697B7-57AE-DBEA-4DCF-4128F4F15722}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="114300" y="0"/>
-          <a:ext cx="11134725" cy="2238375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1438,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:H12"/>
     </sheetView>
   </sheetViews>
@@ -2537,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3591,7 +3525,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SpMVC_005_RentBook/document/도서대여점_회원관리_테이블명세(2023-07-21).xlsx
+++ b/SpMVC_005_RentBook/document/도서대여점_회원관리_테이블명세(2023-07-21).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\springMVC\SpMVC_005_RentBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1841F287-812A-4160-96CD-40B8D86B729F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34142412-6262-4F76-9014-8896E02A9E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,138 +208,118 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>도서코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:반납, NULL 미반납</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_POINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납 완료시점에서 적립</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입연도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_YEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_IPRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_RPRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_BCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_UCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_BOOKS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_USERS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_BOOKS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_BOOKS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_USERS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>U_CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_TEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_ADDR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:반납, NULL 미반납</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENT_POINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납 완료시점에서 적립</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입연도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_YEAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_IPRICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_RPRICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENT_BCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENT_UCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_BOOKS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_USERS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_BOOKS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_BOOKS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_USERS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_USERS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TBL_RENT_BOOK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,6 +401,46 @@
   </si>
   <si>
     <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentBookDB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_MEMBERS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ADDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1372,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H12"/>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2028,32 +2044,32 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
       <c r="I1" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J1" s="34">
         <v>45128</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
@@ -2061,14 +2077,14 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="I2" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J2" s="36">
         <v>45128</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2084,10 +2100,10 @@
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="22"/>
@@ -2123,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -2152,19 +2168,19 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2185,10 +2201,10 @@
         <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2210,10 +2226,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2235,7 +2251,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2249,19 +2265,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2274,16 +2290,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2297,19 +2313,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2471,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3127,32 +3143,32 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
       <c r="I1" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J1" s="34">
         <v>45128</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
@@ -3160,14 +3176,14 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="I2" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J2" s="36">
         <v>45128</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3183,10 +3199,10 @@
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="22"/>
@@ -3222,7 +3238,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -3248,20 +3264,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3273,17 +3291,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="G7" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3296,16 +3316,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3317,15 +3341,17 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4188,32 +4214,32 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
       <c r="I1" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J1" s="34">
         <v>45128</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
@@ -4221,14 +4247,14 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="I2" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J2" s="36">
         <v>45128</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4244,10 +4270,10 @@
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="22"/>
@@ -4283,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -4319,16 +4345,16 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4346,7 +4372,7 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4369,7 +4395,7 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4382,27 +4408,27 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L9" s="16"/>
     </row>
@@ -4411,27 +4437,27 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="L10" s="16"/>
     </row>
@@ -4455,7 +4481,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4463,13 +4489,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -4478,7 +4504,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/SpMVC_005_RentBook/document/도서대여점_회원관리_테이블명세(2023-07-21).xlsx
+++ b/SpMVC_005_RentBook/document/도서대여점_회원관리_테이블명세(2023-07-21).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\springMVC\SpMVC_005_RentBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34142412-6262-4F76-9014-8896E02A9E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A866B-F91E-4ACD-BB3A-BE5AFE4051E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RENT_RETUR_YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>도서코드</t>
   </si>
   <si>
@@ -272,10 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RENT_UCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TBL_BOOKS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,6 +429,50 @@
   </si>
   <si>
     <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_MCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_RETURN_YN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1021,72 +1053,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60B04AA-BABF-CDDE-7E5D-9BDA875FE074}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="114300" y="0"/>
-          <a:ext cx="10801350" cy="2981325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2044,32 +2010,32 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
       <c r="I1" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J1" s="34">
         <v>45128</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
@@ -2077,14 +2043,14 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="I2" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J2" s="36">
         <v>45128</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2100,10 +2066,10 @@
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="22"/>
@@ -2139,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -2165,22 +2131,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2192,19 +2158,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2217,19 +2183,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2242,16 +2208,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2265,19 +2231,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2290,16 +2256,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2313,19 +2279,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2487,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3143,32 +3109,32 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
       <c r="I1" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J1" s="34">
         <v>45128</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
@@ -3176,14 +3142,14 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="I2" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J2" s="36">
         <v>45128</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3199,10 +3165,10 @@
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="22"/>
@@ -3238,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -3264,22 +3230,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3291,19 +3257,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3316,19 +3282,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3341,16 +3307,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3558,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4214,32 +4180,32 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27"/>
       <c r="I1" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J1" s="34">
         <v>45128</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
@@ -4247,14 +4213,14 @@
       <c r="G2" s="29"/>
       <c r="H2" s="30"/>
       <c r="I2" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J2" s="36">
         <v>45128</v>
       </c>
       <c r="K2" s="37"/>
       <c r="L2" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4262,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="32"/>
@@ -4270,10 +4236,10 @@
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
       <c r="I3" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="22"/>
@@ -4283,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -4309,7 +4275,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
@@ -4341,20 +4307,22 @@
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4362,17 +4330,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4385,17 +4355,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="G8" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4408,27 +4380,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="G9" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="L9" s="16"/>
     </row>
@@ -4437,27 +4411,29 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="K10" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L10" s="16"/>
     </row>
@@ -4466,22 +4442,24 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4489,32 +4467,42 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4654,6 +4642,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>